--- a/files/classifica_aggiornata_20240728_182339.xlsx
+++ b/files/classifica_aggiornata_20240728_182339.xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtaur\Documents\streamlit\apps\benpoker\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B522A-FE2D-4530-AF3B-9075EADAAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="classifiche" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="classifiche" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Giocatore</t>
+  </si>
+  <si>
+    <t>Punti</t>
+  </si>
+  <si>
+    <t>Sconfitte</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Tot Cash Vinto</t>
+  </si>
+  <si>
+    <t>Podi</t>
+  </si>
+  <si>
+    <t>MasterLeague</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>cman</t>
+  </si>
+  <si>
+    <t>domtheboneless</t>
+  </si>
+  <si>
+    <t>sgenchi</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Rastroni</t>
+  </si>
+  <si>
+    <t>binzio</t>
+  </si>
+  <si>
+    <t>saddave</t>
+  </si>
+  <si>
+    <t>wawwo</t>
+  </si>
+  <si>
+    <t>toto007</t>
+  </si>
+  <si>
+    <t>Bambarlo</t>
+  </si>
+  <si>
+    <t>lilith</t>
+  </si>
+  <si>
+    <t>Piero</t>
+  </si>
+  <si>
+    <t>spada</t>
+  </si>
+  <si>
+    <t>Sanzione</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +123,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,428 +447,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Giocatore</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Punti</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sconfitte</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tot Cash Vinto</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Podi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MasterLeague</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Marco</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>66</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>13</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>295</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>cman</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>52</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>11</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>210</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>domtheboneless</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>195</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sgenchi</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>51</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>135</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Luca</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>42</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>135</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rastroni</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>48</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>110</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>binzio</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>75</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>saddave</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>33</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>110</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>wawwo</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>55</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>toto007</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>80</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bambarlo</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>45</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>lilith</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Piero</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>20</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>spada</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sanzione</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>

--- a/files/classifica_aggiornata_20240728_182339.xlsx
+++ b/files/classifica_aggiornata_20240728_182339.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtaur\Documents\streamlit\apps\benpoker\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B522A-FE2D-4530-AF3B-9075EADAAB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72830CC-3BC3-4264-A8AF-F4DB1D457794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2628" yWindow="6456" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classifiche" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classifiche!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -451,10 +454,13 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -481,45 +487,45 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -527,19 +533,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -550,45 +556,45 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -596,68 +602,68 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7">
         <v>12</v>
-      </c>
-      <c r="B7">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
       <c r="E8">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -665,45 +671,45 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,45 +717,45 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>15</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -757,19 +763,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
       <c r="E14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -780,22 +786,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -803,22 +809,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>1</v>

--- a/files/classifica_aggiornata_20240728_182339.xlsx
+++ b/files/classifica_aggiornata_20240728_182339.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtaur\Documents\streamlit\apps\benpoker\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72830CC-3BC3-4264-A8AF-F4DB1D457794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D4E98-A903-4B46-A759-3F5BC08D224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2628" yWindow="6456" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="1020" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classifiche" sheetId="1" r:id="rId1"/>
@@ -46,56 +46,56 @@
     <t>MasterLeague</t>
   </si>
   <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>cman</t>
-  </si>
-  <si>
-    <t>domtheboneless</t>
-  </si>
-  <si>
-    <t>sgenchi</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Rastroni</t>
-  </si>
-  <si>
-    <t>binzio</t>
-  </si>
-  <si>
-    <t>saddave</t>
-  </si>
-  <si>
-    <t>wawwo</t>
-  </si>
-  <si>
-    <t>toto007</t>
-  </si>
-  <si>
-    <t>Bambarlo</t>
-  </si>
-  <si>
-    <t>lilith</t>
-  </si>
-  <si>
-    <t>Piero</t>
-  </si>
-  <si>
-    <t>spada</t>
-  </si>
-  <si>
-    <t>Sanzione</t>
+    <t>Antonio Rafaschieri</t>
+  </si>
+  <si>
+    <t>Marco Insabato</t>
+  </si>
+  <si>
+    <t>Piero Falagario</t>
+  </si>
+  <si>
+    <t>Antonio Sanzone</t>
+  </si>
+  <si>
+    <t>Silvio Genchi</t>
+  </si>
+  <si>
+    <t>Giulia Spadafina</t>
+  </si>
+  <si>
+    <t>Giuseppe Toto</t>
+  </si>
+  <si>
+    <t>Walter Spadafina</t>
+  </si>
+  <si>
+    <t>Giancarlo Tauro</t>
+  </si>
+  <si>
+    <t>Fabrizio Fresa</t>
+  </si>
+  <si>
+    <t>Nicola Cuomo</t>
+  </si>
+  <si>
+    <t>Domenico Carella</t>
+  </si>
+  <si>
+    <t>Luca De Tommasi</t>
+  </si>
+  <si>
+    <t>Lilly Antonacci</t>
+  </si>
+  <si>
+    <t>Dave Colaianni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,11 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -451,14 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -487,7 +498,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -510,7 +521,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>35</v>
@@ -533,7 +544,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>52</v>
@@ -556,7 +567,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>49</v>
@@ -579,7 +590,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -602,7 +613,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>42</v>
@@ -625,7 +636,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>66</v>
@@ -648,7 +659,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -671,7 +682,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>48</v>
@@ -694,7 +705,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>33</v>
@@ -717,7 +728,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -740,7 +751,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>51</v>
@@ -763,7 +774,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -786,7 +797,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -809,7 +820,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>23</v>
@@ -830,7 +841,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
+    <sortCondition ref="A1:A16"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>